--- a/extra bestanden/nodered.xlsx
+++ b/extra bestanden/nodered.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jande\Documents\AAA2024-2025\BPGit\extra bestanden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9FD142-DCF1-464A-9C5F-6FCD4CA1652B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1566B918-F7E6-4BBF-8479-024198E19ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="21120" windowHeight="10632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodered" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="ExternalData_2" localSheetId="0" hidden="1">nodered!$K$1:$S$97</definedName>
     <definedName name="ExternalData_3" localSheetId="0" hidden="1">nodered!$U$1:$AC$97</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>%totaal</t>
   </si>
@@ -120,6 +120,24 @@
   <si>
     <t>Column1.9.2</t>
   </si>
+  <si>
+    <t>5G</t>
+  </si>
+  <si>
+    <t>4G</t>
+  </si>
+  <si>
+    <t>Dload</t>
+  </si>
+  <si>
+    <t>Uload</t>
+  </si>
+  <si>
+    <t>current speed</t>
+  </si>
+  <si>
+    <t>WI-FI</t>
+  </si>
 </sst>
 </file>
 
@@ -154,8 +172,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -226,6 +245,1039 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nodered!$P$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5G</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>nodered!$Q$99:$S$99</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Dload</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Uload</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>current speed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nodered!$Q$100:$S$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2546.5520833333335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1909.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5077.833333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BB5A-40ED-BC03-192AC62ED8B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nodered!$P$101</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4G</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>nodered!$Q$99:$S$99</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Dload</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Uload</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>current speed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nodered!$Q$101:$S$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3870.2083333333335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2902.5625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8026.697916666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BB5A-40ED-BC03-192AC62ED8B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nodered!$P$102</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WI-FI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>nodered!$Q$99:$S$99</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Dload</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Uload</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>current speed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nodered!$Q$102:$S$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1338.494623655914</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1003.7204301075269</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2507.2903225806454</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BB5A-40ED-BC03-192AC62ED8B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="521368104"/>
+        <c:axId val="521374224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="521368104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="521374224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="521374224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="521368104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>944880</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3DD6690-53B7-7ED1-F213-27D8F932378D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -599,10 +1651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC97"/>
+  <dimension ref="A1:AC102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N79" workbookViewId="0">
-      <selection activeCell="AB103" sqref="AB103"/>
+    <sheetView tabSelected="1" topLeftCell="G95" workbookViewId="0">
+      <selection activeCell="U102" sqref="U102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8438,31 +9490,31 @@
       </c>
     </row>
     <row r="95" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="K95">
-        <v>100</v>
-      </c>
-      <c r="L95">
-        <v>28</v>
-      </c>
-      <c r="M95">
-        <v>0</v>
-      </c>
-      <c r="N95">
-        <v>16</v>
-      </c>
-      <c r="O95">
-        <v>100</v>
-      </c>
-      <c r="P95">
-        <v>12</v>
-      </c>
-      <c r="Q95">
+      <c r="K95" s="1">
+        <v>100</v>
+      </c>
+      <c r="L95" s="1">
+        <v>28</v>
+      </c>
+      <c r="M95" s="1">
+        <v>0</v>
+      </c>
+      <c r="N95" s="1">
+        <v>16</v>
+      </c>
+      <c r="O95" s="1">
+        <v>100</v>
+      </c>
+      <c r="P95" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q95" s="1">
         <v>4271</v>
       </c>
-      <c r="R95">
+      <c r="R95" s="1">
         <v>3203</v>
       </c>
-      <c r="S95">
+      <c r="S95" s="1">
         <v>9333</v>
       </c>
       <c r="U95">
@@ -8494,31 +9546,31 @@
       </c>
     </row>
     <row r="96" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="K96">
-        <v>100</v>
-      </c>
-      <c r="L96">
-        <v>28</v>
-      </c>
-      <c r="M96">
-        <v>0</v>
-      </c>
-      <c r="N96">
-        <v>16</v>
-      </c>
-      <c r="O96">
-        <v>100</v>
-      </c>
-      <c r="P96">
-        <v>12</v>
-      </c>
-      <c r="Q96">
+      <c r="K96" s="1">
+        <v>100</v>
+      </c>
+      <c r="L96" s="1">
+        <v>28</v>
+      </c>
+      <c r="M96" s="1">
+        <v>0</v>
+      </c>
+      <c r="N96" s="1">
+        <v>16</v>
+      </c>
+      <c r="O96" s="1">
+        <v>100</v>
+      </c>
+      <c r="P96" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q96" s="1">
         <v>7352</v>
       </c>
-      <c r="R96">
+      <c r="R96" s="1">
         <v>5514</v>
       </c>
-      <c r="S96">
+      <c r="S96" s="1">
         <v>14000</v>
       </c>
       <c r="U96">
@@ -8550,31 +9602,31 @@
       </c>
     </row>
     <row r="97" spans="11:29" x14ac:dyDescent="0.3">
-      <c r="K97">
-        <v>100</v>
-      </c>
-      <c r="L97">
-        <v>28</v>
-      </c>
-      <c r="M97">
-        <v>0</v>
-      </c>
-      <c r="N97">
-        <v>16</v>
-      </c>
-      <c r="O97">
-        <v>100</v>
-      </c>
-      <c r="P97">
-        <v>12</v>
-      </c>
-      <c r="Q97">
+      <c r="K97" s="1">
+        <v>100</v>
+      </c>
+      <c r="L97" s="1">
+        <v>28</v>
+      </c>
+      <c r="M97" s="1">
+        <v>0</v>
+      </c>
+      <c r="N97" s="1">
+        <v>16</v>
+      </c>
+      <c r="O97" s="1">
+        <v>100</v>
+      </c>
+      <c r="P97" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q97" s="1">
         <v>4577</v>
       </c>
-      <c r="R97">
+      <c r="R97" s="1">
         <v>3433</v>
       </c>
-      <c r="S97">
+      <c r="S97" s="1">
         <v>9333</v>
       </c>
       <c r="U97">
@@ -8605,12 +9657,87 @@
         <v>14000</v>
       </c>
     </row>
+    <row r="99" spans="11:29" x14ac:dyDescent="0.3">
+      <c r="Q99" t="s">
+        <v>27</v>
+      </c>
+      <c r="R99" t="s">
+        <v>28</v>
+      </c>
+      <c r="S99" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="11:29" x14ac:dyDescent="0.3">
+      <c r="P100" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q100">
+        <f>AVERAGE(Q2:Q97)</f>
+        <v>2546.5520833333335</v>
+      </c>
+      <c r="R100">
+        <f t="shared" ref="Q100:AC101" si="0">AVERAGE(R2:R97)</f>
+        <v>1909.75</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="0"/>
+        <v>5077.833333333333</v>
+      </c>
+      <c r="AA100">
+        <f t="shared" si="0"/>
+        <v>3870.2083333333335</v>
+      </c>
+      <c r="AB100">
+        <f t="shared" si="0"/>
+        <v>2902.5625</v>
+      </c>
+      <c r="AC100">
+        <f t="shared" si="0"/>
+        <v>8026.697916666667</v>
+      </c>
+    </row>
+    <row r="101" spans="11:29" x14ac:dyDescent="0.3">
+      <c r="P101" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q101">
+        <f>AVERAGE(AA2:AA97)</f>
+        <v>3870.2083333333335</v>
+      </c>
+      <c r="R101">
+        <f>AVERAGE(AB2:AB97)</f>
+        <v>2902.5625</v>
+      </c>
+      <c r="S101">
+        <f>AVERAGE(AC2:AC97)</f>
+        <v>8026.697916666667</v>
+      </c>
+    </row>
+    <row r="102" spans="11:29" x14ac:dyDescent="0.3">
+      <c r="P102" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q102">
+        <f>AVERAGE(G2:G94)</f>
+        <v>1338.494623655914</v>
+      </c>
+      <c r="R102">
+        <f t="shared" ref="R102:S102" si="1">AVERAGE(H2:H94)</f>
+        <v>1003.7204301075269</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="1"/>
+        <v>2507.2903225806454</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="3">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>

--- a/extra bestanden/nodered.xlsx
+++ b/extra bestanden/nodered.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jande\Documents\AAA2024-2025\BPGit\extra bestanden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1566B918-F7E6-4BBF-8479-024198E19ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC32EDEE-FA96-4223-9EB5-B2A351B2923E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="21120" windowHeight="10632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="21120" windowHeight="10632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodered" sheetId="1" r:id="rId1"/>
@@ -127,16 +127,16 @@
     <t>4G</t>
   </si>
   <si>
-    <t>Dload</t>
+    <t>WI-FI</t>
   </si>
   <si>
-    <t>Uload</t>
+    <t>Dload (bytes/sec)</t>
   </si>
   <si>
-    <t>current speed</t>
+    <t>Uload (bytes/sec)</t>
   </si>
   <si>
-    <t>WI-FI</t>
+    <t>current speed (bytes/sec)</t>
   </si>
 </sst>
 </file>
@@ -172,9 +172,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -328,13 +327,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Dload</c:v>
+                  <c:v>Dload (bytes/sec)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Uload</c:v>
+                  <c:v>Uload (bytes/sec)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>current speed</c:v>
+                  <c:v>current speed (bytes/sec)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -393,13 +392,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Dload</c:v>
+                  <c:v>Dload (bytes/sec)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Uload</c:v>
+                  <c:v>Uload (bytes/sec)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>current speed</c:v>
+                  <c:v>current speed (bytes/sec)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -458,13 +457,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Dload</c:v>
+                  <c:v>Dload (bytes/sec)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Uload</c:v>
+                  <c:v>Uload (bytes/sec)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>current speed</c:v>
+                  <c:v>current speed (bytes/sec)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1653,8 +1652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G95" workbookViewId="0">
-      <selection activeCell="U102" sqref="U102"/>
+    <sheetView tabSelected="1" topLeftCell="G96" workbookViewId="0">
+      <selection activeCell="P99" sqref="P99:S102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9490,31 +9489,31 @@
       </c>
     </row>
     <row r="95" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="K95" s="1">
-        <v>100</v>
-      </c>
-      <c r="L95" s="1">
-        <v>28</v>
-      </c>
-      <c r="M95" s="1">
-        <v>0</v>
-      </c>
-      <c r="N95" s="1">
-        <v>16</v>
-      </c>
-      <c r="O95" s="1">
-        <v>100</v>
-      </c>
-      <c r="P95" s="1">
-        <v>12</v>
-      </c>
-      <c r="Q95" s="1">
+      <c r="K95">
+        <v>100</v>
+      </c>
+      <c r="L95">
+        <v>28</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>16</v>
+      </c>
+      <c r="O95">
+        <v>100</v>
+      </c>
+      <c r="P95">
+        <v>12</v>
+      </c>
+      <c r="Q95">
         <v>4271</v>
       </c>
-      <c r="R95" s="1">
+      <c r="R95">
         <v>3203</v>
       </c>
-      <c r="S95" s="1">
+      <c r="S95">
         <v>9333</v>
       </c>
       <c r="U95">
@@ -9546,31 +9545,31 @@
       </c>
     </row>
     <row r="96" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="K96" s="1">
-        <v>100</v>
-      </c>
-      <c r="L96" s="1">
-        <v>28</v>
-      </c>
-      <c r="M96" s="1">
-        <v>0</v>
-      </c>
-      <c r="N96" s="1">
-        <v>16</v>
-      </c>
-      <c r="O96" s="1">
-        <v>100</v>
-      </c>
-      <c r="P96" s="1">
-        <v>12</v>
-      </c>
-      <c r="Q96" s="1">
+      <c r="K96">
+        <v>100</v>
+      </c>
+      <c r="L96">
+        <v>28</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>16</v>
+      </c>
+      <c r="O96">
+        <v>100</v>
+      </c>
+      <c r="P96">
+        <v>12</v>
+      </c>
+      <c r="Q96">
         <v>7352</v>
       </c>
-      <c r="R96" s="1">
+      <c r="R96">
         <v>5514</v>
       </c>
-      <c r="S96" s="1">
+      <c r="S96">
         <v>14000</v>
       </c>
       <c r="U96">
@@ -9602,31 +9601,31 @@
       </c>
     </row>
     <row r="97" spans="11:29" x14ac:dyDescent="0.3">
-      <c r="K97" s="1">
-        <v>100</v>
-      </c>
-      <c r="L97" s="1">
-        <v>28</v>
-      </c>
-      <c r="M97" s="1">
-        <v>0</v>
-      </c>
-      <c r="N97" s="1">
-        <v>16</v>
-      </c>
-      <c r="O97" s="1">
-        <v>100</v>
-      </c>
-      <c r="P97" s="1">
-        <v>12</v>
-      </c>
-      <c r="Q97" s="1">
+      <c r="K97">
+        <v>100</v>
+      </c>
+      <c r="L97">
+        <v>28</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>16</v>
+      </c>
+      <c r="O97">
+        <v>100</v>
+      </c>
+      <c r="P97">
+        <v>12</v>
+      </c>
+      <c r="Q97">
         <v>4577</v>
       </c>
-      <c r="R97" s="1">
+      <c r="R97">
         <v>3433</v>
       </c>
-      <c r="S97" s="1">
+      <c r="S97">
         <v>9333</v>
       </c>
       <c r="U97">
@@ -9659,13 +9658,13 @@
     </row>
     <row r="99" spans="11:29" x14ac:dyDescent="0.3">
       <c r="Q99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R99" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" spans="11:29" x14ac:dyDescent="0.3">
@@ -9677,7 +9676,7 @@
         <v>2546.5520833333335</v>
       </c>
       <c r="R100">
-        <f t="shared" ref="Q100:AC101" si="0">AVERAGE(R2:R97)</f>
+        <f t="shared" ref="R100:AC100" si="0">AVERAGE(R2:R97)</f>
         <v>1909.75</v>
       </c>
       <c r="S100">
@@ -9716,7 +9715,7 @@
     </row>
     <row r="102" spans="11:29" x14ac:dyDescent="0.3">
       <c r="P102" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q102">
         <f>AVERAGE(G2:G94)</f>

--- a/extra bestanden/nodered.xlsx
+++ b/extra bestanden/nodered.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jande\Documents\AAA2024-2025\BPGit\extra bestanden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC32EDEE-FA96-4223-9EB5-B2A351B2923E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE2C3FA-94E5-47AE-A0B0-14246DD595D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="21120" windowHeight="10632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="21120" windowHeight="10632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodered" sheetId="1" r:id="rId1"/>
@@ -127,16 +127,16 @@
     <t>4G</t>
   </si>
   <si>
-    <t>WI-FI</t>
+    <t>wifi</t>
   </si>
   <si>
-    <t>Dload (bytes/sec)</t>
+    <t>Dload</t>
   </si>
   <si>
-    <t>Uload (bytes/sec)</t>
+    <t>Uload</t>
   </si>
   <si>
-    <t>current speed (bytes/sec)</t>
+    <t xml:space="preserve">current speed </t>
   </si>
 </sst>
 </file>
@@ -261,6 +261,39 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Node-Red</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39932680538555693"/>
+          <c:y val="3.0349025744497049E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -292,7 +325,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10915595743535676"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.68577769757067464"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -306,7 +349,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5G</c:v>
+                  <c:v>wifi</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -327,13 +370,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Dload (bytes/sec)</c:v>
+                  <c:v>Dload</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Uload (bytes/sec)</c:v>
+                  <c:v>Uload</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>current speed (bytes/sec)</c:v>
+                  <c:v>current speed </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -345,13 +388,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2546.5520833333335</c:v>
+                  <c:v>1338.494623655914</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1909.75</c:v>
+                  <c:v>1003.7204301075269</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5077.833333333333</c:v>
+                  <c:v>2507.2903225806454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -392,13 +435,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Dload (bytes/sec)</c:v>
+                  <c:v>Dload</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Uload (bytes/sec)</c:v>
+                  <c:v>Uload</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>current speed (bytes/sec)</c:v>
+                  <c:v>current speed </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -436,7 +479,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>WI-FI</c:v>
+                  <c:v>5G</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -457,13 +500,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Dload (bytes/sec)</c:v>
+                  <c:v>Dload</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Uload (bytes/sec)</c:v>
+                  <c:v>Uload</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>current speed (bytes/sec)</c:v>
+                  <c:v>current speed </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -475,13 +518,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1338.494623655914</c:v>
+                  <c:v>2546.5520833333335</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1003.7204301075269</c:v>
+                  <c:v>1909.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2507.2903225806454</c:v>
+                  <c:v>5077.833333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -577,6 +620,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Bytes/s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -622,6 +720,1275 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.82153228283135293"/>
+          <c:y val="0.33391149023038791"/>
+          <c:w val="7.2657187453498348E-2"/>
+          <c:h val="0.22164406532516773"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Dload</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.1914260717410323E-2"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.74100196850393696"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>wifi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nodered!$G$2:$G$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>922</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1135</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1146</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1137</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1039</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2359</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2322</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1066</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1214</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1177</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1074</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1115</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1226</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1148</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1374</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1139</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1235</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1109</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1149</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1121</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1127</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1428</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1133</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1229</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1144</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1252</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>971</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1203</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1810</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1115</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1142</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1211</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2256</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2278</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1112</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1210</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1643</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1560</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1112</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1135</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1216</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1035</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2319</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3358</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1126</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1146</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>959</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>865</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1808</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1551</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2870</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3160</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1830</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2503</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2593</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1181</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2319</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1246</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1078</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1574</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1130</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1154</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1323</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1193</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1151</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1095</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1078</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1207</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1044</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1585</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1445</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1092</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1144</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1199</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1039</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1146</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-081E-48CA-8A4D-64476741891D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>4G</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nodered!$AA$2:$AA$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>3415</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2862</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3948</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2769</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3639</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3320</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3463</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3132</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2914</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3370</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4199</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3615</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4048</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2858</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3142</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4290</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4283</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2222</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2913</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3071</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4756</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3504</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3305</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4473</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2713</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3376</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5753</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3769</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5092</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3836</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4197</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6908</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2386</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3594</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3550</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5102</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3536</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3356</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3355</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1244</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2823</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2702</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2975</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2897</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3638</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3828</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3811</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2251</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6920</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5089</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3476</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6658</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2958</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4359</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2689</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4956</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4640</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4696</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3893</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3190</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4274</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2801</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3923</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3158</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4483</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4180</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4404</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5123</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1508</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5584</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2478</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4790</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5313</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4735</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5063</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4167</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4320</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4211</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4430</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3830</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4753</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4973</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4501</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4749</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4071</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4610</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3920</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1718</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4167</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4460</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3151</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6446</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-081E-48CA-8A4D-64476741891D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>5G</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nodered!$Q$2:$Q$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>3214</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4522</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5312</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1535</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2645</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4612</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1367</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3583</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1592</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1420</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1340</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3354</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4116</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3059</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2713</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1238</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4628</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7142</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2277</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1142</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1641</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3752</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4338</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2071</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1604</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1276</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>803</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4787</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4098</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3014</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1414</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7414</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4358</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2544</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1386</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1101</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1376</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1468</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1374</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1591</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1437</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4131</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1439</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2787</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1321</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1109</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1533</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1125</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1416</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3553</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1453</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4458</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3646</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3296</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2269</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2386</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1403</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3165</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1896</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1513</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1364</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2377</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5912</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4981</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3267</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2210</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3145</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2525</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2084</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2651</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4411</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3049</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1103</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1165</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1439</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1245</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1319</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1227</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1379</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1578</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3786</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2223</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1599</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1312</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1103</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1543</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4271</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7352</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4577</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-081E-48CA-8A4D-64476741891D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="674884688"/>
+        <c:axId val="674885048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="674884688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="674885048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="674885048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="674884688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -696,6 +2063,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1238,20 +2645,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>944880</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:rowOff>87631</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1271,6 +3194,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafiek 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EDE6D7F-95EF-5E86-A6B3-C2AB253C8493}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1652,8 +3611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G96" workbookViewId="0">
-      <selection activeCell="P99" sqref="P99:S102"/>
+    <sheetView tabSelected="1" topLeftCell="D110" workbookViewId="0">
+      <selection activeCell="N124" sqref="N124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9669,22 +11628,22 @@
     </row>
     <row r="100" spans="11:29" x14ac:dyDescent="0.3">
       <c r="P100" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q100">
-        <f>AVERAGE(Q2:Q97)</f>
-        <v>2546.5520833333335</v>
+        <f>AVERAGE(G2:G94)</f>
+        <v>1338.494623655914</v>
       </c>
       <c r="R100">
-        <f t="shared" ref="R100:AC100" si="0">AVERAGE(R2:R97)</f>
-        <v>1909.75</v>
+        <f>AVERAGE(H2:H94)</f>
+        <v>1003.7204301075269</v>
       </c>
       <c r="S100">
-        <f t="shared" si="0"/>
-        <v>5077.833333333333</v>
+        <f>AVERAGE(I2:I94)</f>
+        <v>2507.2903225806454</v>
       </c>
       <c r="AA100">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="R100:AC100" si="0">AVERAGE(AA2:AA97)</f>
         <v>3870.2083333333335</v>
       </c>
       <c r="AB100">
@@ -9715,19 +11674,19 @@
     </row>
     <row r="102" spans="11:29" x14ac:dyDescent="0.3">
       <c r="P102" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q102">
-        <f>AVERAGE(G2:G94)</f>
-        <v>1338.494623655914</v>
+        <f>AVERAGE(Q2:Q97)</f>
+        <v>2546.5520833333335</v>
       </c>
       <c r="R102">
-        <f t="shared" ref="R102:S102" si="1">AVERAGE(H2:H94)</f>
-        <v>1003.7204301075269</v>
+        <f>AVERAGE(R2:R97)</f>
+        <v>1909.75</v>
       </c>
       <c r="S102">
-        <f t="shared" si="1"/>
-        <v>2507.2903225806454</v>
+        <f>AVERAGE(S2:S97)</f>
+        <v>5077.833333333333</v>
       </c>
     </row>
   </sheetData>

--- a/extra bestanden/nodered.xlsx
+++ b/extra bestanden/nodered.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jande\Documents\AAA2024-2025\BPGit\extra bestanden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE2C3FA-94E5-47AE-A0B0-14246DD595D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F2ADDD-A0D2-45EE-AB4F-BB6B8EA43E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="21120" windowHeight="10632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -879,8 +879,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.1914260717410323E-2"/>
-          <c:y val="0.17171296296296296"/>
+          <c:x val="0.10507217847769029"/>
+          <c:y val="0.15782407407407409"/>
           <c:w val="0.74100196850393696"/>
           <c:h val="0.72088764946048411"/>
         </c:manualLayout>
@@ -1860,6 +1860,7 @@
         <c:axId val="674884688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1938,6 +1939,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Bytes/s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1976,6 +2032,2616 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="674884688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Uload</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>wifi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nodered!$H$2:$H$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>692</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>851</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>852</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>779</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1769</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>841</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1741</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>799</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>653</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>883</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>919</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>854</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>926</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>831</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>845</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1071</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>922</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>858</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>939</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>728</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>902</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1357</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>856</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>908</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1692</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1709</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>834</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>908</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1575</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1232</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>834</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>851</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>912</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1739</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2518</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>862</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>844</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>859</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>719</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>772</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>649</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1356</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1163</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2153</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2370</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1372</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1877</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1945</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>886</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1739</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>935</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>809</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1180</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>847</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>865</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>894</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>863</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>751</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>808</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>905</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1189</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1084</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>819</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>858</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>899</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>779</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>708</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-36C9-4405-8E6D-6B13BF9989A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>4G</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nodered!$AB$2:$AB$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>2561</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2961</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2437</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2077</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2729</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2490</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2597</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2349</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2186</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2527</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3149</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2711</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3036</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2143</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2357</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3218</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3212</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1666</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2185</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2303</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3567</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2628</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2479</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3354</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2532</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2249</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2625</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4314</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2826</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3819</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2877</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3147</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5181</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1790</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2696</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2663</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3826</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2652</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2517</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2516</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>933</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2117</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2231</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2173</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2729</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2871</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2858</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1688</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5190</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3816</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2607</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4993</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2218</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3269</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3717</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3480</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3522</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2920</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2392</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3205</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2101</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2942</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2369</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3362</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3135</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3303</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3842</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1131</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4188</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1859</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3592</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3985</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3551</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3797</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3125</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3240</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3158</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3323</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2872</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3565</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3730</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3376</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3561</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3053</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3458</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2940</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1289</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2827</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3125</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3345</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2363</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4834</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-36C9-4405-8E6D-6B13BF9989A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>5G</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nodered!$R$2:$R$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>2410</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3391</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1151</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3459</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1218</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2687</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1194</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>757</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1065</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2515</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3087</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2294</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>928</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3471</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1781</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1488</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5357</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1707</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>857</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1231</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2814</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3253</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1553</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1203</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>957</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>602</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1088</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3590</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3073</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2260</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5560</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3268</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1908</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>826</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1101</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1193</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1078</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3098</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1079</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>772</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2090</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>991</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>844</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1062</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2665</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3343</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2734</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2472</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1701</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1789</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1052</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2374</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1422</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1134</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1023</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1783</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4434</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3735</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1657</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2359</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1893</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1563</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3308</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2287</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>827</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>874</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1079</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>989</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1034</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1183</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2839</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1667</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1199</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>827</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1157</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3203</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5514</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3433</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-36C9-4405-8E6D-6B13BF9989A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="622491264"/>
+        <c:axId val="622491624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="622491264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="622491624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="622491624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Bytes/s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="622491264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>current speed</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>wifi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nodered!$I$2:$I$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>1647</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1866</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>933</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2153</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1555</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2153</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2333</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2153</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2545</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2153</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2333</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2153</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1272</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2545</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2153</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2333</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2153</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2333</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2153</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2153</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2153</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4666</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4666</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1866</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2153</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3111</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2153</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2153</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1866</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4666</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2153</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2153</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1866</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1555</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4666</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4666</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1647</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2153</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4666</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2333</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1037</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2153</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2153</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2153</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2545</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2153</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2153</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1866</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2153</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1866</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2153</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2153</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1866</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2153</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-96CC-4488-87C7-D82A2850DCDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>4G</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nodered!$AC$2:$AC$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4666</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2333</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4666</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4666</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3111</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>14000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-96CC-4488-87C7-D82A2850DCDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>5G</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nodered!$S$2:$S$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2545</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3111</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1866</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2545</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2545</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4666</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4666</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2153</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3111</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3111</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2333</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1473</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2545</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4666</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2545</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2545</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2545</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3111</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1866</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2545</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2333</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2545</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4666</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4666</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2545</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2333</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4666</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4666</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2153</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2333</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2545</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2333</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2545</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3111</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2333</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-96CC-4488-87C7-D82A2850DCDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="667660560"/>
+        <c:axId val="667663440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="667660560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="667663440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="667663440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Bytes/s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="667660560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2103,6 +4769,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3161,6 +5907,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3201,16 +6979,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>845820</xdr:colOff>
       <xdr:row>111</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>784860</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3230,6 +7008,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>815340</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafiek 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8475793F-CE74-5A7A-9172-C3CCCA877F7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafiek 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{715AC635-5A53-D792-64C6-405F24F98C31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3611,8 +7461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D110" workbookViewId="0">
-      <selection activeCell="N124" sqref="N124"/>
+    <sheetView tabSelected="1" topLeftCell="O106" workbookViewId="0">
+      <selection activeCell="R125" sqref="R125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11643,7 +15493,7 @@
         <v>2507.2903225806454</v>
       </c>
       <c r="AA100">
-        <f t="shared" ref="R100:AC100" si="0">AVERAGE(AA2:AA97)</f>
+        <f t="shared" ref="AA100:AC100" si="0">AVERAGE(AA2:AA97)</f>
         <v>3870.2083333333335</v>
       </c>
       <c r="AB100">

--- a/extra bestanden/nodered.xlsx
+++ b/extra bestanden/nodered.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jande\Documents\AAA2024-2025\BPGit\extra bestanden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F2ADDD-A0D2-45EE-AB4F-BB6B8EA43E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA0CF69-A1B0-4A44-BCE3-78659AFFBE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="21120" windowHeight="10632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
